--- a/data/Сварог.xlsx
+++ b/data/Сварог.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\Сварог на Крым\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7C2E5-A66D-449A-836B-8787A01E39C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B347A5C-BBFE-4426-9CAB-A86EF60FF9DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,27 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Колбаса варено-копченая Сервелат Кремлевский ТМ Стародворье фиброуз в/у вес СК2</t>
+    <t>Колбаса вареная Докторская по-стародворски ТМ Стародворье ТС Фирменная амифлекс вес СК</t>
   </si>
   <si>
-    <t>Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ, кг</t>
+    <t>Сосиски Молокуши (Вязанка Молочные) ТМ Стародворские колбасы ТС Вязанка амицел мгс вес СК</t>
   </si>
   <si>
-    <t>Колбаса вареная Докторская стародворская ТМ Стародворье амифлекс вес </t>
+    <t>Колбаса вареная Молочная Дугушка ТМ Стародворье ТС Дугушка вектор вес СК</t>
   </si>
   <si>
-    <t>Колбаса Молочная Особая ТМ Особый рецепт, п/а, ВЕС. ПОКОМ, кг</t>
-  </si>
-  <si>
-    <t>Сосиски Вязанка Сливочные, Вязанка амицел ВЕС.ПОКОМ, кг</t>
-  </si>
-  <si>
-    <t>Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье</t>
-  </si>
-  <si>
-    <t>Ветчина Дугушка ТМ Стародворье ТС Дугушка вектор вес СК</t>
+    <t>Колбаса вареная Нежная НТУ ТМ Зареченские ТС Зареченские продукты полиамид вес СК</t>
   </si>
 </sst>
 </file>
@@ -381,21 +372,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>4607091387230</v>
+        <v>4607091387421</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -403,7 +394,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4607091383997</v>
+        <v>4607091386967</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -411,7 +402,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4607091386004</v>
+        <v>4607091389104</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -419,34 +410,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4607091384130</v>
+        <v>4680115881150</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4607091385168</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4607091384246</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4607091388930</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/Сварог.xlsx
+++ b/data/Сварог.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\Сварог на Крым\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ Сварог\pokom_svarog\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B347A5C-BBFE-4426-9CAB-A86EF60FF9DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6314DDD-0EB5-4BA2-8EB3-C5F3BACCAA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4680115881150</v>
+        <v>4640242180564</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>

--- a/data/Сварог.xlsx
+++ b/data/Сварог.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ Сварог\pokom_svarog\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6314DDD-0EB5-4BA2-8EB3-C5F3BACCAA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A26A4-C7E3-4A9A-AAAF-7BAB5A299BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,18 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Колбаса вареная Докторская по-стародворски ТМ Стародворье ТС Фирменная амифлекс вес СК</t>
-  </si>
-  <si>
-    <t>Сосиски Молокуши (Вязанка Молочные) ТМ Стародворские колбасы ТС Вязанка амицел мгс вес СК</t>
-  </si>
-  <si>
-    <t>Колбаса вареная Молочная Дугушка ТМ Стародворье ТС Дугушка вектор вес СК</t>
-  </si>
-  <si>
-    <t>Колбаса вареная Нежная НТУ ТМ Зареченские ТС Зареченские продукты полиамид вес СК</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>235 Вареные колбасы Особая Особая Весовые П/а Особый рецепт</t>
+  </si>
+  <si>
+    <t>217 Вареные колбасы Докторская Дугушка Дугушка Весовые Вектор Дугушка</t>
+  </si>
+  <si>
+    <t>016 Сосиски Молокуши (Вязанка Молочные) Вязанка Весовые П/а мгс 40 Вязанка</t>
+  </si>
+  <si>
+    <t>321 В/к колбасы Пражский Зареченские продукты Весовой фиброуз в/у 40 Зареченские</t>
+  </si>
+  <si>
+    <t>315 Вареные колбасы Молокуша Вязанка Вес п/а Вязанка</t>
+  </si>
+  <si>
+    <t>225 Вареные колбасы Дугушка со шпиком Дугушка Весовые Вектор Дугушка</t>
+  </si>
+  <si>
+    <t>005 Вареные колбасы Докторская ГОСТ Вязанка Весовые Вектор Вязанка</t>
   </si>
 </sst>
 </file>
@@ -372,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +395,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>4607091387421</v>
+        <v>4607091384147</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -394,7 +403,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4607091386967</v>
+        <v>4607091383522</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -402,7 +411,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4607091389104</v>
+        <v>4607091386967</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -410,10 +419,34 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4640242180564</v>
+        <v>4640242180816</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4680115881327</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4607091384437</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4607091385670</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/Сварог.xlsx
+++ b/data/Сварог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ Сварог\pokom_svarog\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A26A4-C7E3-4A9A-AAAF-7BAB5A299BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6565FF75-7690-41DA-BE36-F81D53B709AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,27 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>235 Вареные колбасы Особая Особая Весовые П/а Особый рецепт</t>
+    <t>Колбаса вареная Докторская по-стародворски ТМ Стародворье ТС Фирменная амифлекс вес СК</t>
   </si>
   <si>
-    <t>217 Вареные колбасы Докторская Дугушка Дугушка Весовые Вектор Дугушка</t>
+    <t>Колбаса вареная Молочная Дугушка ТМ Стародворье ТС Дугушка вектор вес СК</t>
   </si>
   <si>
-    <t>016 Сосиски Молокуши (Вязанка Молочные) Вязанка Весовые П/а мгс 40 Вязанка</t>
+    <t>Копченые колбасы Пражский Зареченские продукты Весовой фиброуз Зареченские</t>
   </si>
   <si>
-    <t>321 В/к колбасы Пражский Зареченские продукты Весовой фиброуз в/у 40 Зареченские</t>
+    <t>Сосиски Молочные Оригинальные Особая Весовые П/а мгс Особый рецепт</t>
   </si>
   <si>
-    <t>315 Вареные колбасы Молокуша Вязанка Вес п/а Вязанка</t>
-  </si>
-  <si>
-    <t>225 Вареные колбасы Дугушка со шпиком Дугушка Весовые Вектор Дугушка</t>
-  </si>
-  <si>
-    <t>005 Вареные колбасы Докторская ГОСТ Вязанка Весовые Вектор Вязанка</t>
+    <t>В/к колбасы «Салями Запеченая» Весовые ТМ «Дугушка»</t>
   </si>
 </sst>
 </file>
@@ -381,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +389,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>4607091384147</v>
+        <v>4607091387421</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -403,7 +397,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4607091383522</v>
+        <v>4607091389104</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -411,7 +405,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>4607091386967</v>
+        <v>4640242180816</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -419,7 +413,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4640242180816</v>
+        <v>4607091384260</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -427,26 +421,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4680115881327</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>4680115883093</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4607091384437</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4607091385670</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
